--- a/Assets/UnityExcelImporterX/Example/Excels/MsItems.xlsx
+++ b/Assets/UnityExcelImporterX/Example/Excels/MsItems.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
-    <sheet name="equip" sheetId="2" r:id="rId2"/>
+    <sheet name="itemEx" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,191 @@
   </si>
   <si>
     <t>MstItemCategoryEnum</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 20, 30,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"描述1", "描述2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"描述1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0.0,"y":3.0,"z":2.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,7,20,40]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["描述1", "描述4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长得像日期的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":1, "b": 2, "c": 3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string,int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一行空数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":1.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0.0,"y":4.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerializableDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerializableDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -213,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +412,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF232323"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -315,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -357,6 +548,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -640,7 +836,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>$I$5*J4</f>
+        <f t="shared" ref="E4:E9" si="0">$I$5*J4</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="F4" s="5"/>
@@ -778,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f>$I$5*J5</f>
+        <f t="shared" si="0"/>
         <v>3.2199999999999998</v>
       </c>
       <c r="F5" s="5"/>
@@ -806,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>$I$5*J6</f>
+        <f t="shared" si="0"/>
         <v>3.6799999999999997</v>
       </c>
       <c r="F6" s="5"/>
@@ -832,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="12">
-        <f>$I$5*J7</f>
+        <f t="shared" si="0"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="F7" s="12"/>
@@ -858,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="12">
-        <f>$I$5*J8</f>
+        <f t="shared" si="0"/>
         <v>4.83</v>
       </c>
       <c r="F8" s="12"/>
@@ -884,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="12">
-        <f>$I$5*J9</f>
+        <f t="shared" si="0"/>
         <v>5.0599999999999996</v>
       </c>
       <c r="F9" s="12"/>
@@ -1066,15 +1262,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,10 +1288,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1093,48 +1329,209 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>45911.871354166666</v>
+      </c>
+      <c r="G4" s="25">
+        <v>45912</v>
+      </c>
+      <c r="H4" s="26">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <v>45912.871354108793</v>
+      </c>
+      <c r="G5" s="25">
+        <v>45913</v>
+      </c>
+      <c r="H5" s="26">
+        <v>2017001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6">
         <v>99.99</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>45913.871354108793</v>
+      </c>
+      <c r="G6" s="25">
+        <v>45914</v>
+      </c>
+      <c r="H6" s="23">
+        <v>20151224</v>
+      </c>
+      <c r="I6">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>4</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23"/>
+      <c r="O7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/UnityExcelImporterX/Example/Excels/MsItems.xlsx
+++ b/Assets/UnityExcelImporterX/Example/Excels/MsItems.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过此列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖咖喱棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打狗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MstItemCategoryEnum</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 20, 30,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"描述1", "描述2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"描述1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0.0,"y":3.0,"z":2.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,7,20,40]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["描述1", "描述4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长得像日期的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":1, "b": 2, "c": 3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一行空数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":1.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0.0,"y":4.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表格头部的空白表示表格列的结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,235 +379,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过此列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖咖喱棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打狗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MstItemCategoryEnum</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>activate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10, 20, 30,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"描述1", "描述2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"描述1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"x":0.0,"y":3.0,"z":2.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5,7,20,40]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["描述1", "描述4"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HashSet&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长得像日期的数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"a":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"a":1, "b": 2, "c": 3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dictionary&lt;string,int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一行空数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"x":1.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"x":0.0,"y":4.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SerializableDateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SerializableDateTime</t>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":1,"s":"ss"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MstItemCustomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +860,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,14 +893,14 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>13</v>
@@ -900,33 +924,33 @@
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
@@ -1213,7 +1237,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -1264,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,37 +1312,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1329,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>94</v>
@@ -1344,22 +1371,25 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1367,48 +1397,51 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="N3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1426,30 +1459,33 @@
         <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>1.3</v>
@@ -1467,30 +1503,33 @@
         <v>2017001</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>99.99</v>
@@ -1511,16 +1550,19 @@
         <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6">
         <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1531,7 +1573,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="23"/>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
